--- a/biology/Zoologie/Erythrolamprus_miliaris/Erythrolamprus_miliaris.xlsx
+++ b/biology/Zoologie/Erythrolamprus_miliaris/Erythrolamprus_miliaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erythrolamprus miliaris est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erythrolamprus miliaris est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Guyane ;
 au Suriname ;
 au Guyana ;
@@ -553,9 +567,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux et ovipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux et ovipare.
 </t>
         </is>
       </c>
@@ -584,9 +600,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (23 septembre 2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (23 septembre 2015) :
 Erythrolamprus miliaris amazonicus (Dunn, 1922)
 Erythrolamprus miliaris chrysostomus (Cope, 1868)
 Erythrolamprus miliaris merremi (Wied-Neuwied, 1821)
@@ -619,9 +637,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liophis miliaris semiaureus[3] a été élevée au rang d'espèce[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liophis miliaris semiaureus a été élevée au rang d'espèce.
 </t>
         </is>
       </c>
@@ -650,7 +670,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cope, 1868 : An examination of the Reptilia and Batrachia obtained by the Orton Expedition to Equador and the Upper Amazon, with notes on other species. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 20, p. 96-140 (texte intégral).
 Dunn, 1922 : Two new South American snakes. Proceedings of the Biological Society of Washington, vol. 35, p. 219-220 (texte intégral).
